--- a/data/tehilim-data/9.xlsx
+++ b/data/tehilim-data/9.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="303">
   <si>
     <t>original</t>
   </si>
@@ -28,10 +28,16 @@
     <t>Руководителю</t>
   </si>
   <si>
-    <t>עַל-מוּת לַבֵּן</t>
-  </si>
-  <si>
-    <t>На смерть Лабена</t>
+    <t xml:space="preserve">עַל-מוּת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">На смерть </t>
+  </si>
+  <si>
+    <t>לַבֵּן</t>
+  </si>
+  <si>
+    <t>Лабена</t>
   </si>
   <si>
     <t>מִזְמוֹר</t>
@@ -49,10 +55,16 @@
     <t>ב</t>
   </si>
   <si>
-    <t>אוֹדֶה יְהוָה</t>
-  </si>
-  <si>
-    <t>Благодарю Господа</t>
+    <t xml:space="preserve">אוֹדֶה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Благодарю </t>
+  </si>
+  <si>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>Господа</t>
   </si>
   <si>
     <t>בְּכָל-לִבִּי</t>
@@ -67,19 +79,37 @@
     <t>Рассказываю</t>
   </si>
   <si>
-    <t>כָּל-נִפְלְאוֹתֶיךָ</t>
-  </si>
-  <si>
-    <t>Все чудеса Твои</t>
+    <t>כָּל</t>
+  </si>
+  <si>
+    <t>Все</t>
+  </si>
+  <si>
+    <t>נִפְלְאוֹתֶיךָ</t>
+  </si>
+  <si>
+    <t>чудеса Твои</t>
   </si>
   <si>
     <t>ג</t>
   </si>
   <si>
-    <t>אֶשְׂמְחָה וְאֶעֶלְצָה בָּךְ</t>
-  </si>
-  <si>
-    <t>Радуюсь и веселюсь в Тебе</t>
+    <t xml:space="preserve">אֶשְׂמְחָה  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радуюсь </t>
+  </si>
+  <si>
+    <t>וְאֶעֶלְצָה</t>
+  </si>
+  <si>
+    <t>и веселюсь</t>
+  </si>
+  <si>
+    <t>בָּךְ</t>
+  </si>
+  <si>
+    <t>в Тебе</t>
   </si>
   <si>
     <t>אֲזַמְּרָה</t>
@@ -127,10 +157,16 @@
     <t>упадут</t>
   </si>
   <si>
-    <t>וְיֹאבֵדוּ מִפָּנֶיךָ</t>
-  </si>
-  <si>
-    <t>и погибнут от лица Твоего</t>
+    <t xml:space="preserve">וְיֹאבֵדוּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">и погибнут </t>
+  </si>
+  <si>
+    <t>מִפָּנֶיךָ</t>
+  </si>
+  <si>
+    <t>от лица Твоего</t>
   </si>
   <si>
     <t>ה</t>
@@ -154,10 +190,16 @@
     <t>и правду мою</t>
   </si>
   <si>
-    <t>יָשַׁבְתָּ לְכִסֵּא</t>
-  </si>
-  <si>
-    <t>Ты воссел на престоле</t>
+    <t xml:space="preserve">יָשַׁבְתָּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты воссел </t>
+  </si>
+  <si>
+    <t>לְכִסֵּא</t>
+  </si>
+  <si>
+    <t>на престоле</t>
   </si>
   <si>
     <t>שׁוֹפֵט</t>
@@ -211,66 +253,75 @@
     <t>истребил</t>
   </si>
   <si>
-    <t>לְעוֹלָם וָעֶד</t>
+    <t>וָעֶד</t>
+  </si>
+  <si>
+    <t>во веки</t>
+  </si>
+  <si>
+    <t>לְעוֹלָם</t>
+  </si>
+  <si>
+    <t>веков</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>הָאוֹיֵב</t>
+  </si>
+  <si>
+    <t>Враг</t>
+  </si>
+  <si>
+    <t>תַּמּוּ</t>
+  </si>
+  <si>
+    <t>Истреблены</t>
+  </si>
+  <si>
+    <t>חֳרָבוֹת</t>
+  </si>
+  <si>
+    <t>לָנֶצַח</t>
+  </si>
+  <si>
+    <t>וְעָרִים</t>
+  </si>
+  <si>
+    <t>города</t>
+  </si>
+  <si>
+    <t>נָתַשְׁתָּ</t>
+  </si>
+  <si>
+    <t>разрушил</t>
+  </si>
+  <si>
+    <t>אָבַד</t>
+  </si>
+  <si>
+    <t>погибла</t>
+  </si>
+  <si>
+    <t>זִכְרָם</t>
+  </si>
+  <si>
+    <t>память их</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>וַיהוָה</t>
+  </si>
+  <si>
+    <t>Но Господь</t>
   </si>
   <si>
     <t>навеки</t>
   </si>
   <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>הָאוֹיֵב</t>
-  </si>
-  <si>
-    <t>Враг</t>
-  </si>
-  <si>
-    <t>תַּמּוּ</t>
-  </si>
-  <si>
-    <t>Истреблены</t>
-  </si>
-  <si>
-    <t>חֳרָבוֹת לָנֶצַח</t>
-  </si>
-  <si>
-    <t>וְעָרִים</t>
-  </si>
-  <si>
-    <t>города</t>
-  </si>
-  <si>
-    <t>נָתַשְׁתָּ</t>
-  </si>
-  <si>
-    <t>разрушил</t>
-  </si>
-  <si>
-    <t>אָבַד</t>
-  </si>
-  <si>
-    <t>погибла</t>
-  </si>
-  <si>
-    <t>זִכְרָם</t>
-  </si>
-  <si>
-    <t>память их</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>וַיהוָה</t>
-  </si>
-  <si>
-    <t>Но Господь</t>
-  </si>
-  <si>
-    <t>לְעוֹלָם</t>
-  </si>
-  <si>
     <t>יֵשֵׁב</t>
   </si>
   <si>
@@ -343,9 +394,6 @@
     <t>И будет</t>
   </si>
   <si>
-    <t>יְהוָה</t>
-  </si>
-  <si>
     <t>Господь</t>
   </si>
   <si>
@@ -400,330 +448,366 @@
     <t>имя Твое</t>
   </si>
   <si>
+    <t xml:space="preserve">כִּי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ибо </t>
+  </si>
+  <si>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t>не</t>
+  </si>
+  <si>
+    <t>עָזַבְתָּ</t>
+  </si>
+  <si>
+    <t>оставил</t>
+  </si>
+  <si>
+    <t>דֹּרְשֶׁיךָ</t>
+  </si>
+  <si>
+    <t>ищущих Тебя</t>
+  </si>
+  <si>
+    <t>Господи</t>
+  </si>
+  <si>
+    <t>יב</t>
+  </si>
+  <si>
+    <t>זַמְּרוּ</t>
+  </si>
+  <si>
+    <t>Пойте</t>
+  </si>
+  <si>
+    <t>לַיהוָה</t>
+  </si>
+  <si>
+    <t>Господу</t>
+  </si>
+  <si>
+    <t>יֹשֵׁב</t>
+  </si>
+  <si>
+    <t>живущему</t>
+  </si>
+  <si>
+    <t>צִיּוֹן</t>
+  </si>
+  <si>
+    <t>на Сионе</t>
+  </si>
+  <si>
+    <t>הַגִּידוּ</t>
+  </si>
+  <si>
+    <t>возвещайте</t>
+  </si>
+  <si>
+    <t>בָּעַמִּים</t>
+  </si>
+  <si>
+    <t>среди народов</t>
+  </si>
+  <si>
+    <t>עֲלִילוֹתָיו</t>
+  </si>
+  <si>
+    <t>дела Его</t>
+  </si>
+  <si>
+    <t>יג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כִּי-דֹרֵשׁ </t>
+  </si>
+  <si>
+    <t>Ибо взыскивающий</t>
+  </si>
+  <si>
+    <t>דָּמִים</t>
+  </si>
+  <si>
+    <t>кровь</t>
+  </si>
+  <si>
+    <t>אוֹתָם</t>
+  </si>
+  <si>
+    <t>помнит их</t>
+  </si>
+  <si>
+    <t>זְכָרָם</t>
+  </si>
+  <si>
+    <t>помнит</t>
+  </si>
+  <si>
+    <t>לֹא-שָׁכַח</t>
+  </si>
+  <si>
+    <t>не забывает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">צַעֲקַת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопль </t>
+  </si>
+  <si>
+    <t>עֲנָוִים</t>
+  </si>
+  <si>
+    <t>смиренных</t>
+  </si>
+  <si>
+    <t>יד</t>
+  </si>
+  <si>
+    <t>חָנֵּנִי</t>
+  </si>
+  <si>
+    <t>Помилуй меня</t>
+  </si>
+  <si>
+    <t>רְאֵה</t>
+  </si>
+  <si>
+    <t>Взгляни</t>
+  </si>
+  <si>
+    <t>עָנְיִי</t>
+  </si>
+  <si>
+    <t>на страдание мое</t>
+  </si>
+  <si>
+    <t>מִשֹּׂנְאָי</t>
+  </si>
+  <si>
+    <t>от ненавидящих меня</t>
+  </si>
+  <si>
+    <t>מְרוֹמְמִי</t>
+  </si>
+  <si>
+    <t>Поднимающий меня</t>
+  </si>
+  <si>
+    <t>מִשַּׁעֲרֵי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от врат </t>
+  </si>
+  <si>
+    <t>מָוֶת</t>
+  </si>
+  <si>
+    <t>смерти</t>
+  </si>
+  <si>
+    <t>טו</t>
+  </si>
+  <si>
+    <t>לְמַעַן</t>
+  </si>
+  <si>
+    <t>Ради</t>
+  </si>
+  <si>
+    <t>Рассказать</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>תְּהִלָּתֶךָ</t>
+  </si>
+  <si>
+    <t>славы Твои</t>
+  </si>
+  <si>
+    <t>בְּשַׁעֲרֵי</t>
+  </si>
+  <si>
+    <t>Во вратах</t>
+  </si>
+  <si>
+    <t>בַת-צִיּוֹן</t>
+  </si>
+  <si>
+    <t>дщери Сиона</t>
+  </si>
+  <si>
+    <t>אָגִילָה</t>
+  </si>
+  <si>
+    <t>Возвеселюсь</t>
+  </si>
+  <si>
+    <t>בִּישׁוּעָתֶךָ</t>
+  </si>
+  <si>
+    <t>о спасении Твоем</t>
+  </si>
+  <si>
+    <t>טז</t>
+  </si>
+  <si>
+    <t>טָבְעוּ</t>
+  </si>
+  <si>
+    <t>Утопили</t>
+  </si>
+  <si>
+    <t>גוֹיִם</t>
+  </si>
+  <si>
+    <t>בְּשַׁחַת</t>
+  </si>
+  <si>
+    <t>в ров</t>
+  </si>
+  <si>
+    <t>עָשׂוּ</t>
+  </si>
+  <si>
+    <t>сделали</t>
+  </si>
+  <si>
+    <t>בְּרֶשֶׁת</t>
+  </si>
+  <si>
+    <t>в сети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זֻוּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">которую </t>
+  </si>
+  <si>
+    <t>טָמְנוּ</t>
+  </si>
+  <si>
+    <t>они скрыли</t>
+  </si>
+  <si>
+    <t>נִלְכְּדָה</t>
+  </si>
+  <si>
+    <t>Попалась</t>
+  </si>
+  <si>
+    <t>רַגְלָם</t>
+  </si>
+  <si>
+    <t>нога их</t>
+  </si>
+  <si>
+    <t>יז</t>
+  </si>
+  <si>
+    <t>נוֹדַע</t>
+  </si>
+  <si>
+    <t>Известен</t>
+  </si>
+  <si>
+    <t>מִשְׁפָּט</t>
+  </si>
+  <si>
+    <t>правосудием</t>
+  </si>
+  <si>
+    <t>עָשָׂה</t>
+  </si>
+  <si>
+    <t>сделал</t>
+  </si>
+  <si>
+    <t>בְּפֹעַל</t>
+  </si>
+  <si>
+    <t>В делах</t>
+  </si>
+  <si>
+    <t>כַּפָּיו</t>
+  </si>
+  <si>
+    <t>рук своих</t>
+  </si>
+  <si>
+    <t>נוֹקֵשׁ</t>
+  </si>
+  <si>
+    <t>запутался</t>
+  </si>
+  <si>
+    <t>нечестивый</t>
+  </si>
+  <si>
+    <t>הִגָּיוֹן</t>
+  </si>
+  <si>
+    <t>размышление</t>
+  </si>
+  <si>
+    <t>סֶלָה</t>
+  </si>
+  <si>
+    <t>Села</t>
+  </si>
+  <si>
+    <t>יח</t>
+  </si>
+  <si>
+    <t>יָשׁוּבוּ</t>
+  </si>
+  <si>
+    <t>Вернутся</t>
+  </si>
+  <si>
+    <t>רְשָׁעִים</t>
+  </si>
+  <si>
+    <t>нечестивые</t>
+  </si>
+  <si>
+    <t>לִשְׁאוֹלָה</t>
+  </si>
+  <si>
+    <t>в преисподнюю</t>
+  </si>
+  <si>
+    <t>כָּל-גּוֹיִם</t>
+  </si>
+  <si>
+    <t>все народы</t>
+  </si>
+  <si>
+    <t>שְׁכֵחֵי</t>
+  </si>
+  <si>
+    <t>забывающие</t>
+  </si>
+  <si>
+    <t>אֱלֹהִים</t>
+  </si>
+  <si>
+    <t>Бога</t>
+  </si>
+  <si>
+    <t>יט</t>
+  </si>
+  <si>
     <t>כִּי לֹא</t>
   </si>
   <si>
-    <t>ибо не</t>
-  </si>
-  <si>
-    <t>עָזַבְתָּ</t>
-  </si>
-  <si>
-    <t>оставил</t>
-  </si>
-  <si>
-    <t>דֹּרְשֶׁיךָ</t>
-  </si>
-  <si>
-    <t>ищущих Тебя</t>
-  </si>
-  <si>
-    <t>Господи</t>
-  </si>
-  <si>
-    <t>יב</t>
-  </si>
-  <si>
-    <t>זַמְּרוּ</t>
-  </si>
-  <si>
-    <t>Пойте</t>
-  </si>
-  <si>
-    <t>לַיהוָה</t>
-  </si>
-  <si>
-    <t>Господу</t>
-  </si>
-  <si>
-    <t>יֹשֵׁב</t>
-  </si>
-  <si>
-    <t>живущему</t>
-  </si>
-  <si>
-    <t>צִיּוֹן</t>
-  </si>
-  <si>
-    <t>на Сионе</t>
-  </si>
-  <si>
-    <t>הַגִּידוּ</t>
-  </si>
-  <si>
-    <t>возвещайте</t>
-  </si>
-  <si>
-    <t>בָּעַמִּים</t>
-  </si>
-  <si>
-    <t>среди народов</t>
-  </si>
-  <si>
-    <t>עֲלִילוֹתָיו</t>
-  </si>
-  <si>
-    <t>дела Его</t>
-  </si>
-  <si>
-    <t>יג</t>
-  </si>
-  <si>
-    <t>כִּי-דֹרֵשׁ דָּמִים</t>
-  </si>
-  <si>
-    <t>Ибо взыскивающий кровь</t>
-  </si>
-  <si>
-    <t>אוֹתָם</t>
-  </si>
-  <si>
-    <t>помнит их</t>
-  </si>
-  <si>
-    <t>זְכָרָם</t>
-  </si>
-  <si>
-    <t>помнит</t>
-  </si>
-  <si>
-    <t>לֹא-שָׁכַח</t>
-  </si>
-  <si>
-    <t>не забывает</t>
-  </si>
-  <si>
-    <t>צַעֲקַת עֲנָוִים</t>
-  </si>
-  <si>
-    <t>вопль смиренных</t>
-  </si>
-  <si>
-    <t>יד</t>
-  </si>
-  <si>
-    <t>חָנֵּנִי</t>
-  </si>
-  <si>
-    <t>Помилуй меня</t>
-  </si>
-  <si>
-    <t>רְאֵה</t>
-  </si>
-  <si>
-    <t>Взгляни</t>
-  </si>
-  <si>
-    <t>עָנְיִי</t>
-  </si>
-  <si>
-    <t>на страдание мое</t>
-  </si>
-  <si>
-    <t>מִשֹּׂנְאָי</t>
-  </si>
-  <si>
-    <t>от ненавидящих меня</t>
-  </si>
-  <si>
-    <t>מְרוֹמְמִי</t>
-  </si>
-  <si>
-    <t>Поднимающий меня</t>
-  </si>
-  <si>
-    <t>מִשַּׁעֲרֵי-מָוֶת</t>
-  </si>
-  <si>
-    <t>от врат смерти</t>
-  </si>
-  <si>
-    <t>טו</t>
-  </si>
-  <si>
-    <t>לְמַעַן</t>
-  </si>
-  <si>
-    <t>Ради</t>
-  </si>
-  <si>
-    <t>Рассказать</t>
-  </si>
-  <si>
-    <t>כָּל-תְּהִלָּתֶךָ</t>
-  </si>
-  <si>
-    <t>все славы Твои</t>
-  </si>
-  <si>
-    <t>בְּשַׁעֲרֵי</t>
-  </si>
-  <si>
-    <t>Во вратах</t>
-  </si>
-  <si>
-    <t>בַת-צִיּוֹן</t>
-  </si>
-  <si>
-    <t>дщери Сиона</t>
-  </si>
-  <si>
-    <t>אָגִילָה</t>
-  </si>
-  <si>
-    <t>Возвеселюсь</t>
-  </si>
-  <si>
-    <t>בִּישׁוּעָתֶךָ</t>
-  </si>
-  <si>
-    <t>о спасении Твоем</t>
-  </si>
-  <si>
-    <t>טז</t>
-  </si>
-  <si>
-    <t>טָבְעוּ</t>
-  </si>
-  <si>
-    <t>Утопили</t>
-  </si>
-  <si>
-    <t>גוֹיִם</t>
-  </si>
-  <si>
-    <t>בְּשַׁחַת</t>
-  </si>
-  <si>
-    <t>в ров</t>
-  </si>
-  <si>
-    <t>עָשׂוּ</t>
-  </si>
-  <si>
-    <t>сделали</t>
-  </si>
-  <si>
-    <t>בְּרֶשֶׁת</t>
-  </si>
-  <si>
-    <t>в сети</t>
-  </si>
-  <si>
-    <t>זֻוּ טָמְנוּ</t>
-  </si>
-  <si>
-    <t>которую они скрыли</t>
-  </si>
-  <si>
-    <t>נִלְכְּדָה</t>
-  </si>
-  <si>
-    <t>Попалась</t>
-  </si>
-  <si>
-    <t>רַגְלָם</t>
-  </si>
-  <si>
-    <t>нога их</t>
-  </si>
-  <si>
-    <t>יז</t>
-  </si>
-  <si>
-    <t>נוֹדַע</t>
-  </si>
-  <si>
-    <t>Известен</t>
-  </si>
-  <si>
-    <t>מִשְׁפָּט</t>
-  </si>
-  <si>
-    <t>правосудием</t>
-  </si>
-  <si>
-    <t>עָשָׂה</t>
-  </si>
-  <si>
-    <t>сделал</t>
-  </si>
-  <si>
-    <t>בְּפֹעַל</t>
-  </si>
-  <si>
-    <t>В делах</t>
-  </si>
-  <si>
-    <t>כַּפָּיו</t>
-  </si>
-  <si>
-    <t>рук своих</t>
-  </si>
-  <si>
-    <t>נוֹקֵשׁ</t>
-  </si>
-  <si>
-    <t>запутался</t>
-  </si>
-  <si>
-    <t>нечестивый</t>
-  </si>
-  <si>
-    <t>הִגָּיוֹן</t>
-  </si>
-  <si>
-    <t>размышление</t>
-  </si>
-  <si>
-    <t>סֶלָה</t>
-  </si>
-  <si>
-    <t>Села</t>
-  </si>
-  <si>
-    <t>יח</t>
-  </si>
-  <si>
-    <t>יָשׁוּבוּ</t>
-  </si>
-  <si>
-    <t>Вернутся</t>
-  </si>
-  <si>
-    <t>רְשָׁעִים</t>
-  </si>
-  <si>
-    <t>нечестивые</t>
-  </si>
-  <si>
-    <t>לִשְׁאוֹלָה</t>
-  </si>
-  <si>
-    <t>в преисподнюю</t>
-  </si>
-  <si>
-    <t>כָּל-גּוֹיִם</t>
-  </si>
-  <si>
-    <t>все народы</t>
-  </si>
-  <si>
-    <t>שְׁכֵחֵי</t>
-  </si>
-  <si>
-    <t>забывающие</t>
-  </si>
-  <si>
-    <t>אֱלֹהִים</t>
-  </si>
-  <si>
-    <t>Бога</t>
-  </si>
-  <si>
-    <t>יט</t>
-  </si>
-  <si>
     <t>Ибо не</t>
   </si>
   <si>
@@ -793,10 +877,16 @@
     <t>да будут судимы</t>
   </si>
   <si>
-    <t>עַל-פָּנֶיךָ</t>
-  </si>
-  <si>
-    <t>перед Тобой</t>
+    <t>עַל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перед </t>
+  </si>
+  <si>
+    <t>פָּנֶיךָ</t>
+  </si>
+  <si>
+    <t>Тобой</t>
   </si>
   <si>
     <t>כא</t>
@@ -836,7 +926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -852,13 +942,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -867,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -879,6 +979,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,10 +1235,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1148,16 +1254,16 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>2.0</v>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1278,7 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1188,32 +1294,32 @@
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
-        <v>3.0</v>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -1228,325 +1334,325 @@
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
-        <v>4.0</v>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
-        <v>5.0</v>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="3">
-        <v>6.0</v>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="3">
-        <v>7.0</v>
+      <c r="B38" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>78</v>
+      <c r="A44" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>88</v>
+      <c r="A50" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="3">
-        <v>9.0</v>
+        <v>95</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B55" s="3">
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>102</v>
@@ -1557,156 +1663,156 @@
         <v>103</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="3">
-        <v>10.0</v>
+        <v>109</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="B62" s="3">
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="3">
-        <v>11.0</v>
+        <v>122</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="B70" s="3">
+        <v>10.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>135</v>
@@ -1717,7 +1823,7 @@
         <v>136</v>
       </c>
       <c r="B78" s="3">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="79">
@@ -1764,7 +1870,7 @@
       <c r="A84" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1780,13 +1886,13 @@
       <c r="A86" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="3">
-        <v>13.0</v>
+      <c r="B86" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>153</v>
@@ -1796,40 +1902,40 @@
       <c r="A88" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>155</v>
+      <c r="B88" s="3">
+        <v>12.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B92" s="3">
-        <v>14.0</v>
       </c>
     </row>
     <row r="93">
@@ -1842,106 +1948,106 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="B96" s="3">
+        <v>13.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="3">
-        <v>15.0</v>
+        <v>176</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>180</v>
+      <c r="A103" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="B104" s="3">
+        <v>14.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
@@ -1956,61 +2062,61 @@
       <c r="A108" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B108" s="3">
-        <v>16.0</v>
+      <c r="B108" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="B113" s="3">
+        <v>15.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>202</v>
@@ -2018,18 +2124,18 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B117" s="3">
-        <v>17.0</v>
       </c>
     </row>
     <row r="118">
@@ -2042,346 +2148,474 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="B122" s="3">
+        <v>16.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="3">
-        <v>18.0</v>
+        <v>224</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="B132" s="3">
+        <v>17.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B135" s="3">
-        <v>19.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="3" t="s">
         <v>250</v>
+      </c>
+      <c r="B143" s="3">
+        <v>18.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B144" s="3">
-        <v>20.0</v>
+      <c r="B144" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>57</v>
+        <v>263</v>
+      </c>
+      <c r="B150" s="3">
+        <v>19.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B152" s="3">
-        <v>21.0</v>
+        <v>266</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
+      </c>
+      <c r="B159" s="3">
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>222</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B168" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
